--- a/apiinfo/apiinfo.xlsx
+++ b/apiinfo/apiinfo.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenlei/python-project/api-test/jjxt/apiinfo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenlei/python-project/jjxt-api-test/jjxt/apiinfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8920E3A1-63E4-0D42-ACE9-373DBF4DB10F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D3D19-9CC0-2D4F-B785-95D04D33D8C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="11" r:id="rId1"/>
     <sheet name="app" sheetId="14" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="16" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,8 +26,213 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>chen lei</author>
+  </authors>
+  <commentList>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{67E8E73A-789A-424D-B3CB-CB9EC826BD0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t>chen lei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>置顶文字：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{"fromIdentifier":"T-1585","fromIdentifierNickName":"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>陈磊二</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>","</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>character":"CLASS_TEACHER","msgType":"TEXT","top":false,"textMsg":{"callSomeone":false,"callIdentifier":"","text":"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>境内</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>","</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>callIdentifierNickName":"","callList":[]},"randomStr":"1582007985303","tipText":"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>境内</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>","</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>imType":"TIMCustomElem","fromAccount":"T-1585","fromAccountNick":"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>陈磊二</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>","</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="等线"/>
+            <family val="4"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">fromAccountImage":"http://import.highso.org.cn/hximg/attachment-extension-image/2019-05-27/1558943415016_24586.jpg"}
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="221">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,10 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>推送试题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>push</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,205 +525,195 @@
     <t>/diligent/clazz/new/forChat</t>
   </si>
   <si>
+    <t>{"customerId":2141,"clazzId":10907, "messageType":"IMG","top":"false", "randomStr":"1565681377039", "messageContent":{"randomStr":"1565681377039","sendStatus":"sending","msgType":"IMG","top":"false","imgMsg":{"type":"JPG","imgInfo":[{"id":1915,"type":"normal","size":14851,"width":300,"height":300,"url":"https://imgstatic.highso.com.cn/diligent/img/1bce9e6c5ef24f3b89da11513fd12b41.jpg?attname=laoshi.jpg"}]}}}</t>
+  </si>
+  <si>
+    <t>/diligent/studyStage/create</t>
+  </si>
+  <si>
+    <t>/diligent/clazzQuestion/delete</t>
+  </si>
+  <si>
+    <t>/diligent/student/manage/exportStudent</t>
+  </si>
+  <si>
+    <t>/diligent/clazzTypes/search</t>
+  </si>
+  <si>
+    <t>/diligent/clazzQuestion/push</t>
+  </si>
+  <si>
+    <t>/diligent/clazzQuestion/save</t>
+  </si>
+  <si>
+    <t>/diligent/tencent/im/sendMsgPerson/{studentId}</t>
+  </si>
+  <si>
+    <t>/diligent/studycontent/get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'clazzId': '10907', 'businessId': '4005507', 'typeEnum': 'LIVE'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studycontentGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除保存到待推列表中的群答题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/clazzQuestion/unpushed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'clazzId': '420', 'pushDate': '2019-09-17', 'pageNum': '1', 'pageSize': '10'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unpushed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询待推试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/clazzQuestion/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"clazzQuestionId": 1234}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询答题详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/tencent/im/group/historyMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'pageNum': '1', 'sendType': 'GROUP', 'groupIdentifier': 'CLAZZ-420', 'startDate': '2019-09-12 00:00:00', 'endDate': '2019-09-18 23:59:59'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>historyMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看试卷详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paperScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/clazzStat/paperScore/{clazzId}/{paperId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/tencent/im/c2c/historyMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看私聊历史消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询群聊历史消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2chistoryMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'pageNum': '1', 'sendType': 'C2C', 'studentAccount': 'C-23880547', 'clazzId': '416', 'startDate': '2019-09-12 00:00:00', 'endDate': '2019-09-18 23:59:59'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/chatSelector/module/list/{goodsId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/clazz/new/forChat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/student/manage/student-list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/diligent/file/upload/IMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/diligent/file/upload/FILE</t>
-  </si>
-  <si>
-    <t>{"customerId":2141,"clazzId":10907, "messageType":"IMG","top":"false", "randomStr":"1565681377039", "messageContent":{"randomStr":"1565681377039","sendStatus":"sending","msgType":"IMG","top":"false","imgMsg":{"type":"JPG","imgInfo":[{"id":1915,"type":"normal","size":14851,"width":300,"height":300,"url":"https://imgstatic.highso.com.cn/diligent/img/1bce9e6c5ef24f3b89da11513fd12b41.jpg?attname=laoshi.jpg"}]}}}</t>
-  </si>
-  <si>
-    <t>/diligent/studyStage/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/tencent/im/sendMsgGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/diligent/clazzQuestion/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/diligent/student/manage/exportStudent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/diligent/clazzTypes/search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/chatSelector/subject/list/{goodsId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/chatSelector/liveSelectorList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/chatSelector/videoSelectorList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/chatSelector/paper/list/{goodsId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/clazzQuestion/choose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/diligent/clazzQuestion/push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/diligent/clazzQuestion/save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/diligent/tencent/im/sendMsgPerson/{studentId}</t>
-  </si>
-  <si>
-    <t>/diligent/studycontent/get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'clazzId': '10907', 'businessId': '4005507', 'typeEnum': 'LIVE'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>studycontentGet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除保存到待推列表中的群答题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/clazzQuestion/unpushed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'clazzId': '420', 'pushDate': '2019-09-17', 'pageNum': '1', 'pageSize': '10'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unpushed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询待推试题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/clazzQuestion/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"clazzQuestionId": 1234}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询答题详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questionDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/tencent/im/group/historyMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'pageNum': '1', 'sendType': 'GROUP', 'groupIdentifier': 'CLAZZ-420', 'startDate': '2019-09-12 00:00:00', 'endDate': '2019-09-18 23:59:59'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>historyMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看试卷详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>paperScore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/clazzStat/paperScore/{clazzId}/{paperId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/tencent/im/c2c/historyMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看私聊历史消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询群聊历史消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c2chistoryMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'categoryId': '9', 'subjectId': '1', 'outlineId': '', 'paperId': '4905', 'pageNum': '1', 'pageSize': '10', 'correctRateAscFlag': 'false'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'pageNum': '1', 'sendType': 'C2C', 'studentAccount': 'C-23880547', 'clazzId': '416', 'startDate': '2019-09-12 00:00:00', 'endDate': '2019-09-18 23:59:59'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/chatSelector/module/list/{goodsId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/clazz/new/forChat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/student/manage/student-list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/file/upload/IMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/file/upload/FILE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/tencent/im/sendMsgGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/clazzQuestion/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/student/manage/exportStudent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/clazzTypes/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/chatSelector/subject/list/{goodsId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/chatSelector/liveSelectorList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/chatSelector/videoSelectorList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/chatSelector/paper/list/{goodsId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/clazzQuestion/choose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/clazzQuestion/push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/clazzQuestion/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/diligent/tencent/im/sendMsgPerson/{studentId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -638,10 +829,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"examQuestions":[{"questionId":305457}],"includeAnalysis":true,"includeExam":true,"includeFavorite":false,"includeOutline":true,"includeQa":false,"module":107}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{'clazzId': '438', 'studentLevel': '', 'paperId': '4905'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,6 +842,269 @@
   </si>
   <si>
     <t>导出做题记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/clazzQuestion/pushed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pushed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询已推试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'clazzId': '11147', 'startDate': '2020-02-04', 'endDate': '2020-03-17', 'pageNum': '1', 'pageSize': '10'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'clazzId': '11147', 'startDate': '2020-02-04', 'endDate': '2020-03-17'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/clazzQuestion/pushed/export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出已推试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportPushed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateDisplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/clazzQuestion/display/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'newDisplay': 'MANUAL', 'clazzId': '575'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置群答题试题显示解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送试题/显示解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/teacher/findByName/{teacherName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过教师名称查询教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacherfindByName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/tencent/im/deleteMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除聊天框中的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'customerId': '1585', 'clazzId': '567', 'msgSeq': '114'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/tencent/im/cancelTop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'customerId': '1585', 'clazzId': '567', 'messageType': 'OPERATE', 'top': 'false', 'randomStr': '1582008047964', 'messageContent': 'OPERATE'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消置顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancelTop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/student/forbid/submit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forbidSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"clazzId":567,"studentId":"25968417","forbidType":"FORBID_1","remark":"试试"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/clazzSet/forbidSendGroupMsg/{clazzId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clazzSet/cancelForbidSendGroupMsg/{clazzId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全员禁言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消全员禁言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forbidSendGroupMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancelForbidSendGroupMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/student/manage/clazz-online-student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clazz-online-student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询在线学员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/student/manage/queryStudentForbiddenInfo/{clazzId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queryStudentForbiddenInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询禁言信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/groupfile/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询班级群文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupfileList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'clazzId': '11149', 'pageNum': '1', 'pageSize': '10', 'fileType': '1', 'parentId': '-1'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/folder/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"folderName":"ss","clazzId":11149,"parentId":-1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建群文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>folderCreate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/folder/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"clazzId":11149,"folderIds":[4439],"folderName":"ss"}</t>
+  </si>
+  <si>
+    <t>folderDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/folder/addFilesToFolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"clazzId":11149,"fileIds":[13699],"folderId":4441}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动文件到文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFilesToFolder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"teacherId":1569,"clazzId":10,"groupChatState":false,"msgContent":"尊敬的学员您好，很开心陪您走过了一段难忘的备考旅程，我们的群聊服务即将关闭，群聊关闭后，您有任何问题依旧可以私聊班主任和导师~"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/diligent/clazz/updateChatState/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭群聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"teacherId":1569,"clazzId":10,"tutorChatState":false,"msgContent":"尊敬的学员您好，很开心陪您走过了一段难忘的备考旅程，我们的导师及助教私聊的服务即将关闭，导师、助教私聊关闭后，您有任何问题依旧可以私聊班主任~"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭导师助教私聊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateChatState1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateChatState2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'categoryId': '9', 'subjectId': '1', '': '', 'paperId': '4905', 'pageNum': '1', 'pageSize': '10', 'correctRateAscFlag': 'false'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"examQuestions":[{"questionId":305457}],"includeAnalysis":true,"includeExam":true,"includeFavorite":false,"includeOutline":true,"includeQa":false,"module":100007}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +1112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -677,6 +1127,31 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -722,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,7 +1226,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,12 +1544,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C4D114-41D3-B24C-8D2C-CC6761C5EF8B}">
-  <dimension ref="A1:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C4D114-41D3-B24C-8D2C-CC6761C5EF8B}">
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1108,10 +1586,10 @@
         <v>36</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17">
@@ -1136,13 +1614,13 @@
         <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -1153,13 +1631,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>23</v>
@@ -1173,13 +1651,13 @@
         <v>17</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -1188,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="51">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1198,14 +1676,17 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="51">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1215,8 +1696,11 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1227,116 +1711,107 @@
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="153">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="153">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="153">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="51">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="51">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="49" customHeight="1">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1344,19 +1819,19 @@
     </row>
     <row r="14" spans="1:9" ht="49" customHeight="1">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1364,16 +1839,19 @@
     </row>
     <row r="15" spans="1:9" ht="49" customHeight="1">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>119</v>
+        <v>77</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1381,79 +1859,76 @@
     </row>
     <row r="16" spans="1:9" ht="49" customHeight="1">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="51">
+    <row r="17" spans="1:9" ht="49" customHeight="1">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="34">
+    <row r="18" spans="1:9" ht="51">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="17">
+    <row r="19" spans="1:9" ht="34">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1461,62 +1936,59 @@
     </row>
     <row r="20" spans="1:9" ht="17">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="34">
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="51">
+    <row r="22" spans="1:9" ht="34">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>63</v>
+        <v>119</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1524,10 +1996,10 @@
     </row>
     <row r="23" spans="1:9" ht="51">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1536,70 +2008,76 @@
         <v>26</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="51">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="51">
+      <c r="A25" t="s">
         <v>67</v>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="153">
-      <c r="A24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="34">
-      <c r="A25" t="s">
-        <v>90</v>
-      </c>
       <c r="B25" s="9" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="34">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="17">
-      <c r="A26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -1607,36 +2085,36 @@
     </row>
     <row r="27" spans="1:9" ht="17">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="51">
+    <row r="28" spans="1:9" ht="17">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -1644,99 +2122,459 @@
     </row>
     <row r="29" spans="1:9" ht="51">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="51">
+      <c r="A30" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="34">
-      <c r="A30" t="s">
-        <v>142</v>
-      </c>
       <c r="B30" s="9" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>143</v>
+        <v>105</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="34">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="34">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="17">
-      <c r="A32" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="17">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="35" spans="1:7" ht="34">
+      <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17">
-      <c r="A33" t="s">
+      <c r="E35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="9" t="s">
+    </row>
+    <row r="36" spans="1:7" ht="34">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="B34"/>
+    </row>
+    <row r="37" spans="1:7" ht="17">
+      <c r="A37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17">
+      <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="51">
+      <c r="A39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="34">
+      <c r="A40" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="34">
+      <c r="A41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17">
+      <c r="A43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17">
+      <c r="A44" t="s">
+        <v>191</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="34">
+      <c r="A45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17">
+      <c r="A46" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17">
+      <c r="A47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17">
+      <c r="A48" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="51">
+      <c r="A49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" ht="68">
+      <c r="A50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1744,9 +2582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADFDA34-B178-E74F-AB02-A893628C95A2}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1783,10 +2621,10 @@
         <v>36</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17">
@@ -1851,19 +2689,19 @@
     </row>
     <row r="5" spans="1:9" ht="51">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1920,139 +2758,139 @@
     </row>
     <row r="2" spans="1:2" ht="20" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" ht="20" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" ht="20" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" ht="20" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" ht="20" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" ht="20" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" ht="20" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" ht="20" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="20" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="20" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="20" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="20" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="20" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="20" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="20" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="20" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="20" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/apiinfo/apiinfo.xlsx
+++ b/apiinfo/apiinfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenlei/python-project/jjxt-api-test/jjxt/apiinfo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204D3D19-9CC0-2D4F-B785-95D04D33D8C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0293D0A-43F6-B545-B96D-087F9056BCB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="225">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1105,6 +1105,22 @@
   </si>
   <si>
     <t>{"examQuestions":[{"questionId":305457}],"includeAnalysis":true,"includeExam":true,"includeFavorite":false,"includeOutline":true,"includeQa":false,"module":100007}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/imGroup/v1/forbidStudentSendMsg.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"studentId":11276087,"forbidType":"FORBID_1","operatorId":2237,"clazzId":10909,"remark":"S"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"uid":2237}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forbidStudentSendMsg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2582,9 +2598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ADFDA34-B178-E74F-AB02-A893628C95A2}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2702,6 +2718,26 @@
       </c>
       <c r="G5" s="3" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:9">
